--- a/medicine/Psychotrope/Trojan_Room_coffee_pot/Trojan_Room_coffee_pot.xlsx
+++ b/medicine/Psychotrope/Trojan_Room_coffee_pot/Trojan_Room_coffee_pot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Trojan Room coffee pot (de l'anglais, litt. « cafetière de la salle troyenne ») est la première et l'une des plus célèbres utilisations de webcam[1]. Elle a filmé, de 1991 à 2001, une cafetière dans une salle appelée Trojan Room, au laboratoire informatique de l'université de Cambridge en Angleterre. Elle permettait aux chercheurs du laboratoire d'éviter des trajets inutiles en consultant sur leur poste informatique une image en temps réel du niveau de café restant dans la cafetière[2]. Ses images ont été mises en ligne sur le web en 1993.
+La Trojan Room coffee pot (de l'anglais, litt. « cafetière de la salle troyenne ») est la première et l'une des plus célèbres utilisations de webcam. Elle a filmé, de 1991 à 2001, une cafetière dans une salle appelée Trojan Room, au laboratoire informatique de l'université de Cambridge en Angleterre. Elle permettait aux chercheurs du laboratoire d'éviter des trajets inutiles en consultant sur leur poste informatique une image en temps réel du niveau de café restant dans la cafetière. Ses images ont été mises en ligne sur le web en 1993.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Site web</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les images de la webcam ont été mises en ligne sur le site internet du laboratoire en novembre 1993. Le site a attiré 2,5 millions de visiteurs jusqu'à l'arrêt de la webcam[3], le 22 août 2001 à 9 h 54 (UTC)[4], après un déménagement dans de nouveaux locaux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les images de la webcam ont été mises en ligne sur le site internet du laboratoire en novembre 1993. Le site a attiré 2,5 millions de visiteurs jusqu'à l'arrêt de la webcam, le 22 août 2001 à 9 h 54 (UTC), après un déménagement dans de nouveaux locaux.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hyper Text Coffee Pot Control Protocol fait référence à cette webcam[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hyper Text Coffee Pot Control Protocol fait référence à cette webcam.
 </t>
         </is>
       </c>
